--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_31.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_31.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_4</t>
+          <t>model_1_31_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9991737115214809</v>
+        <v>0.9417710714462184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8259777526740144</v>
+        <v>0.6966256579524148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8140443801429181</v>
+        <v>0.7647726201631049</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9956026226109842</v>
+        <v>0.919786409094327</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003439447851121099</v>
+        <v>0.1869315833934684</v>
       </c>
       <c r="G2" t="n">
-        <v>1.163687569167635</v>
+        <v>2.028665622182601</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6651524699024287</v>
+        <v>0.8413946984094276</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007372461559465158</v>
+        <v>0.4386370522988607</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08256724436139576</v>
+        <v>1.241470804842</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05864680597544165</v>
+        <v>0.4323558527341436</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05288246262522</v>
+        <v>0.9207095440969782</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05957043454425702</v>
+        <v>0.4391650252174158</v>
       </c>
       <c r="N2" t="n">
-        <v>141.3448886577494</v>
+        <v>37.35402518655648</v>
       </c>
       <c r="O2" t="n">
-        <v>282.6800612009658</v>
+        <v>74.31860877478231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_5</t>
+          <t>model_1_31_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9991865269835272</v>
+        <v>0.9417622573411271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8259657284513877</v>
+        <v>0.6965970680186023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8141907605954781</v>
+        <v>0.7647676844860654</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9956319781192898</v>
+        <v>0.9197479729478771</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00338610314822113</v>
+        <v>0.1869598792021302</v>
       </c>
       <c r="G3" t="n">
-        <v>1.163767975199706</v>
+        <v>2.028856803201649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6646288755112482</v>
+        <v>0.8414123530400108</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007323245325015392</v>
+        <v>0.4388472351094059</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08161040955427822</v>
+        <v>1.240900427975426</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05819023241250313</v>
+        <v>0.432388574319593</v>
       </c>
       <c r="L3" t="n">
-        <v>1.052062273054261</v>
+        <v>0.9206975419113219</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05910667040410834</v>
+        <v>0.4391982621351265</v>
       </c>
       <c r="N3" t="n">
-        <v>141.3761510651732</v>
+        <v>37.35372246973573</v>
       </c>
       <c r="O3" t="n">
-        <v>282.7113236083896</v>
+        <v>74.31830605796155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_0</t>
+          <t>model_1_31_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9988497857698311</v>
+        <v>0.9417535011147423</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8259550970858062</v>
+        <v>0.6965687223559566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8110474477422265</v>
+        <v>0.764762707934501</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9950081922098072</v>
+        <v>0.9197099289554083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004787797440154801</v>
+        <v>0.1869879892035213</v>
       </c>
       <c r="G4" t="n">
-        <v>1.163839067190303</v>
+        <v>2.029046350778281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6758723233275781</v>
+        <v>0.8414301538763996</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008369059052644168</v>
+        <v>0.4390552734795353</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09384956446621096</v>
+        <v>1.240334558371415</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06919391187203396</v>
+        <v>0.4324210785837357</v>
       </c>
       <c r="L4" t="n">
-        <v>1.073613710730811</v>
+        <v>0.9206856185392236</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0702836468154828</v>
+        <v>0.439231278308937</v>
       </c>
       <c r="N4" t="n">
-        <v>140.6833695958268</v>
+        <v>37.35342178609697</v>
       </c>
       <c r="O4" t="n">
-        <v>282.0185421390432</v>
+        <v>74.31800537432279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_6</t>
+          <t>model_1_31_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9991945964354155</v>
+        <v>0.9417447498926049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8259413661111219</v>
+        <v>0.6965405196607392</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8148327056752135</v>
+        <v>0.7647575379752591</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9956921309365112</v>
+        <v>0.9196721333174771</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00335251383930704</v>
+        <v>0.1870160831398412</v>
       </c>
       <c r="G5" t="n">
-        <v>1.163930886281242</v>
+        <v>2.029234942331062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6623326751831489</v>
+        <v>0.8414486465208364</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007222395592680569</v>
+        <v>0.4392619537568383</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08106723824775201</v>
+        <v>1.239777200798473</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05790089670555233</v>
+        <v>0.4324535618304481</v>
       </c>
       <c r="L5" t="n">
-        <v>1.051545828133406</v>
+        <v>0.9206737019814195</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05881277794900264</v>
+        <v>0.4392642731343138</v>
       </c>
       <c r="N5" t="n">
-        <v>141.3960896295224</v>
+        <v>37.35312131946091</v>
       </c>
       <c r="O5" t="n">
-        <v>282.7312621727388</v>
+        <v>74.31770490768673</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_1</t>
+          <t>model_1_31_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9988715165707402</v>
+        <v>0.9417360235761602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.825916040421797</v>
+        <v>0.6965125192675503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8107990582536041</v>
+        <v>0.7647521644300358</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9950771297296539</v>
+        <v>0.9196345953732883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004697342401226863</v>
+        <v>0.1870440971217351</v>
       </c>
       <c r="G6" t="n">
-        <v>1.164100239282372</v>
+        <v>2.029422181089246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.67676079812593</v>
+        <v>0.8414678673805241</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008253481250214826</v>
+        <v>0.4394672248711525</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09362171992043065</v>
+        <v>1.239219708327094</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06853716073216677</v>
+        <v>0.4324859502015472</v>
       </c>
       <c r="L6" t="n">
-        <v>1.072222939472624</v>
+        <v>0.92066181933775</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06961655250167299</v>
+        <v>0.4392971715898813</v>
       </c>
       <c r="N6" t="n">
-        <v>140.7215167534776</v>
+        <v>37.35282175288393</v>
       </c>
       <c r="O6" t="n">
-        <v>282.056689296694</v>
+        <v>74.31740534110975</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_7</t>
+          <t>model_1_31_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999211059496386</v>
+        <v>0.9417273262357116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8258819496954715</v>
+        <v>0.6964846244433394</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8149533150665058</v>
+        <v>0.7647466318270276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9957747130899778</v>
+        <v>0.9195973372242769</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003283985908505731</v>
+        <v>0.1870720180823595</v>
       </c>
       <c r="G7" t="n">
-        <v>1.164328204126284</v>
+        <v>2.029608713907188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6619012623838305</v>
+        <v>0.8414876571806855</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007083941760300461</v>
+        <v>0.4396709659638022</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08089337395539228</v>
+        <v>1.238670274583937</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05730607217831048</v>
+        <v>0.432518228612806</v>
       </c>
       <c r="L7" t="n">
-        <v>1.050492192231296</v>
+        <v>0.9206499761507563</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05820858553006313</v>
+        <v>0.4393299583538509</v>
       </c>
       <c r="N7" t="n">
-        <v>141.4373947567111</v>
+        <v>37.35252322566694</v>
       </c>
       <c r="O7" t="n">
-        <v>282.7725672999275</v>
+        <v>74.31710681389276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_8</t>
+          <t>model_1_31_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9992218049710286</v>
+        <v>0.9417186498080091</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8258662006679811</v>
+        <v>0.6964569657726358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8149242324468805</v>
+        <v>0.7647409817415112</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9957970563676539</v>
+        <v>0.9195603867215413</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003239257583435778</v>
+        <v>0.1870998719070636</v>
       </c>
       <c r="G8" t="n">
-        <v>1.164433517945629</v>
+        <v>2.029793667565539</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6620052892279231</v>
+        <v>0.8415078672089671</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007046481942503026</v>
+        <v>0.4398730247348646</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08025767997488109</v>
+        <v>1.238124318102574</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05691447604463892</v>
+        <v>0.4325504270106129</v>
       </c>
       <c r="L8" t="n">
-        <v>1.049804481854167</v>
+        <v>0.9206381614406933</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05781082214873876</v>
+        <v>0.4393626638442366</v>
       </c>
       <c r="N8" t="n">
-        <v>141.4648222326991</v>
+        <v>37.35222546065037</v>
       </c>
       <c r="O8" t="n">
-        <v>282.7999947759155</v>
+        <v>74.31680904887619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_9</t>
+          <t>model_1_31_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9992312575847707</v>
+        <v>0.9417099371349344</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8258470057321325</v>
+        <v>0.6964294230732712</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8149476595173824</v>
+        <v>0.7647353385040492</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9958065589290002</v>
+        <v>0.9195236075566039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003199910826379725</v>
+        <v>0.1871278420898214</v>
       </c>
       <c r="G9" t="n">
-        <v>1.164561874570033</v>
+        <v>2.029977845723013</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6619214919551177</v>
+        <v>0.8415280527421553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007030550340085415</v>
+        <v>0.4400741465686088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07945405186751182</v>
+        <v>1.237582918975604</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05656775429853766</v>
+        <v>0.4325827575040658</v>
       </c>
       <c r="L9" t="n">
-        <v>1.049199514574674</v>
+        <v>0.9206262973752299</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05745863988173099</v>
+        <v>0.4393955035106428</v>
       </c>
       <c r="N9" t="n">
-        <v>141.4892646726422</v>
+        <v>37.35192649633785</v>
       </c>
       <c r="O9" t="n">
-        <v>282.8244372158586</v>
+        <v>74.31651008456367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_2</t>
+          <t>model_1_31_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9988929290989899</v>
+        <v>0.9417012981197637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8258221657785184</v>
+        <v>0.6964020669690623</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8107336585923687</v>
+        <v>0.7647294078508841</v>
       </c>
       <c r="E10" t="n">
-        <v>0.995161552969905</v>
+        <v>0.9194871006222607</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004608212180741576</v>
+        <v>0.1871555758095538</v>
       </c>
       <c r="G10" t="n">
-        <v>1.164727979454228</v>
+        <v>2.030160776117821</v>
       </c>
       <c r="H10" t="n">
-        <v>0.676994728922079</v>
+        <v>0.8415492663446476</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008111940727667945</v>
+        <v>0.4402737797465772</v>
       </c>
       <c r="J10" t="n">
-        <v>0.092726344157729</v>
+        <v>1.237046822536191</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06788381383468062</v>
+        <v>0.43261481228635</v>
       </c>
       <c r="L10" t="n">
-        <v>1.070852537664649</v>
+        <v>0.920614533609891</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06895291604365872</v>
+        <v>0.4394280631237049</v>
       </c>
       <c r="N10" t="n">
-        <v>140.7598306209615</v>
+        <v>37.35163010362092</v>
       </c>
       <c r="O10" t="n">
-        <v>282.0950031641779</v>
+        <v>74.31621369184674</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_3</t>
+          <t>model_1_31_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9991724249267966</v>
+        <v>0.9416926471672709</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8257454684271224</v>
+        <v>0.6963749299377049</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8130550534757606</v>
+        <v>0.7647232107777645</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9957831803887495</v>
+        <v>0.9194508453639118</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003444803335842561</v>
+        <v>0.1871833478515182</v>
       </c>
       <c r="G11" t="n">
-        <v>1.165240854996173</v>
+        <v>2.030342241571462</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6686912340263953</v>
+        <v>0.8415714329158693</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007069745836415755</v>
+        <v>0.4404720366687892</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08056031755114058</v>
+        <v>1.2365141356766</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05869244700847427</v>
+        <v>0.4326469089818141</v>
       </c>
       <c r="L11" t="n">
-        <v>1.052964804685018</v>
+        <v>0.9206027535894752</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05961679437793561</v>
+        <v>0.4394606653100377</v>
       </c>
       <c r="N11" t="n">
-        <v>141.3417769259684</v>
+        <v>37.35133334535978</v>
       </c>
       <c r="O11" t="n">
-        <v>282.6769494691848</v>
+        <v>74.31591693358561</v>
       </c>
     </row>
   </sheetData>
